--- a/tempi.xlsx
+++ b/tempi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\Università\Progetti\Metodi Calcolo Scientifico\Git\MCS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{246E6135-C9C1-407E-90B2-350E175B11D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57730F-1AD0-46C8-BC90-9127311FB5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1215" windowWidth="16875" windowHeight="10523" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>R</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Memoria</t>
-  </si>
-  <si>
-    <t>953167160 bytes</t>
   </si>
   <si>
     <t>Time Setup</t>
@@ -86,9 +83,6 @@
     <t>1.793486e-11</t>
   </si>
   <si>
-    <t>1874219368 bytes</t>
-  </si>
-  <si>
     <t>3.343440 min</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>2.532940e-16</t>
-  </si>
-  <si>
-    <t>276482496 bytes</t>
   </si>
   <si>
     <t>0.2515759 sec</t>
@@ -139,12 +130,246 @@
   <si>
     <t>0.353213 sec</t>
   </si>
+  <si>
+    <t>ex15.mtx</t>
+  </si>
+  <si>
+    <t>6.62936e-07</t>
+  </si>
+  <si>
+    <t>2.43236e-16</t>
+  </si>
+  <si>
+    <t>7.26641e-07</t>
+  </si>
+  <si>
+    <t>2.42931e-16</t>
+  </si>
+  <si>
+    <t>8.423600 sec</t>
+  </si>
+  <si>
+    <t>0.425905 sec</t>
+  </si>
+  <si>
+    <t>3.941300 sec</t>
+  </si>
+  <si>
+    <t>0.214367 sec</t>
+  </si>
+  <si>
+    <t>0.0134606 sec</t>
+  </si>
+  <si>
+    <t>0.147407 sec</t>
+  </si>
+  <si>
+    <t>0.328432 sec</t>
+  </si>
+  <si>
+    <t>0.0270852 sec</t>
+  </si>
+  <si>
+    <t>35.8MB</t>
+  </si>
+  <si>
+    <t>36MB</t>
+  </si>
+  <si>
+    <t>3MB</t>
+  </si>
+  <si>
+    <t>4.1MB</t>
+  </si>
+  <si>
+    <t>450MB</t>
+  </si>
+  <si>
+    <t>207.64 sec</t>
+  </si>
+  <si>
+    <t>1.16713 sec</t>
+  </si>
+  <si>
+    <t>2.50441e-12</t>
+  </si>
+  <si>
+    <t>16.84500 sec</t>
+  </si>
+  <si>
+    <t>10.13990 sec</t>
+  </si>
+  <si>
+    <t>0.815764 sec</t>
+  </si>
+  <si>
+    <t>0.195289 sec</t>
+  </si>
+  <si>
+    <t>887.6MB</t>
+  </si>
+  <si>
+    <t>1045.68 sec</t>
+  </si>
+  <si>
+    <t>5.414 sec</t>
+  </si>
+  <si>
+    <t>5.55314e-12</t>
+  </si>
+  <si>
+    <t>5.34245e-12</t>
+  </si>
+  <si>
+    <t>2.54423e-12</t>
+  </si>
+  <si>
+    <t>895MB</t>
+  </si>
+  <si>
+    <t>461MB</t>
+  </si>
+  <si>
+    <t>13.12454 sec</t>
+  </si>
+  <si>
+    <t>19.00214 sec</t>
+  </si>
+  <si>
+    <t>1.377950 sec</t>
+  </si>
+  <si>
+    <t>0.344558 sec</t>
+  </si>
+  <si>
+    <t>952.34 sec</t>
+  </si>
+  <si>
+    <t>188.31 sec</t>
+  </si>
+  <si>
+    <t>1.01245 sec</t>
+  </si>
+  <si>
+    <t>3.21255 sec</t>
+  </si>
+  <si>
+    <t>953MB</t>
+  </si>
+  <si>
+    <t>1874MB</t>
+  </si>
+  <si>
+    <t>276MB</t>
+  </si>
+  <si>
+    <t>parabolic_fem.mtx</t>
+  </si>
+  <si>
+    <t>485MB</t>
+  </si>
+  <si>
+    <t>502MB</t>
+  </si>
+  <si>
+    <t>2.45574-e12</t>
+  </si>
+  <si>
+    <t>2.90885e-12</t>
+  </si>
+  <si>
+    <t>13.0873 sec</t>
+  </si>
+  <si>
+    <t>3.30103 sec</t>
+  </si>
+  <si>
+    <t>70.9807 sec</t>
+  </si>
+  <si>
+    <t>71.2695 sec</t>
+  </si>
+  <si>
+    <t>1.54149 sec</t>
+  </si>
+  <si>
+    <t>1.46859 sec</t>
+  </si>
+  <si>
+    <t>5.199477e-07</t>
+  </si>
+  <si>
+    <t>3.1MB</t>
+  </si>
+  <si>
+    <t>0.125554 sec</t>
+  </si>
+  <si>
+    <t>0.05485392 sec</t>
+  </si>
+  <si>
+    <t>0.05284595 sec</t>
+  </si>
+  <si>
+    <t>8.5736e-07</t>
+  </si>
+  <si>
+    <t>0.001385 sec</t>
+  </si>
+  <si>
+    <t>0.187444 sec</t>
+  </si>
+  <si>
+    <t>0.005653 sec</t>
+  </si>
+  <si>
+    <t>3.1985e-16</t>
+  </si>
+  <si>
+    <t>0.001660 sec</t>
+  </si>
+  <si>
+    <t>5.089697 sec</t>
+  </si>
+  <si>
+    <t>0.125821 sec</t>
+  </si>
+  <si>
+    <t>1206MB</t>
+  </si>
+  <si>
+    <t>2409MB</t>
+  </si>
+  <si>
+    <t>351MB</t>
+  </si>
+  <si>
+    <t>27MB</t>
+  </si>
+  <si>
+    <t>apache2.mtx</t>
+  </si>
+  <si>
+    <t>2619MB</t>
+  </si>
+  <si>
+    <t>4.17427 sec</t>
+  </si>
+  <si>
+    <t>6.52198 sec</t>
+  </si>
+  <si>
+    <t>1601.12 sec</t>
+  </si>
+  <si>
+    <t>9.88465e-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +377,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,10 +418,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -500,24 +741,32 @@
   <dimension ref="A1:BU296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="7" max="7" width="23.19921875" customWidth="1"/>
     <col min="8" max="8" width="18.3984375" customWidth="1"/>
     <col min="13" max="13" width="20.73046875" customWidth="1"/>
     <col min="14" max="14" width="12.46484375" customWidth="1"/>
+    <col min="15" max="15" width="14.73046875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.1328125" customWidth="1"/>
     <col min="19" max="19" width="21.1328125" customWidth="1"/>
     <col min="20" max="20" width="15.19921875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
     <col min="25" max="25" width="19.46484375" customWidth="1"/>
-    <col min="26" max="26" width="12.265625" customWidth="1"/>
+    <col min="26" max="26" width="14.59765625" customWidth="1"/>
+    <col min="27" max="27" width="13.46484375" customWidth="1"/>
+    <col min="28" max="28" width="15.73046875" customWidth="1"/>
     <col min="29" max="29" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -555,7 +804,7 @@
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -571,7 +820,7 @@
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>0</v>
@@ -587,7 +836,7 @@
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
@@ -653,56 +902,78 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="W2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AC2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -751,61 +1022,83 @@
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="W3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AC3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -854,54 +1147,84 @@
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
+      <c r="U4" s="1" t="s">
+        <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>20</v>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>25</v>
+      <c r="AB4" s="1" t="s">
+        <v>43</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>20</v>
+      <c r="AC4" s="1" t="s">
+        <v>99</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -948,35 +1271,85 @@
       <c r="BU4" s="1"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1023,35 +1396,65 @@
       <c r="BU5" s="1"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="3"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1098,35 +1501,55 @@
       <c r="BU6" s="1"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="3"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -1628,7 +2051,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>

--- a/tempi.xlsx
+++ b/tempi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\Università\Progetti\Metodi Calcolo Scientifico\Git\MCS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57730F-1AD0-46C8-BC90-9127311FB5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A18B82-B2DD-41A7-AA1E-F35E171E7CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
+    <workbookView xWindow="720" yWindow="1388" windowWidth="16875" windowHeight="10522" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
   <dimension ref="A1:BU296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tempi.xlsx
+++ b/tempi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\Università\Progetti\Metodi Calcolo Scientifico\Git\MCS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A18B82-B2DD-41A7-AA1E-F35E171E7CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE9B23-3E65-4122-BFC9-3A28BDCC54F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1388" windowWidth="16875" windowHeight="10522" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{BF846A25-7BE8-44CD-B992-B1F1C7B8E5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
   <si>
     <t>R</t>
   </si>
@@ -71,9 +71,6 @@
     <t>0.9257879 sec</t>
   </si>
   <si>
-    <t>1.320329 min</t>
-  </si>
-  <si>
     <t>2.518908 sec</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>1.793486e-11</t>
-  </si>
-  <si>
-    <t>3.343440 min</t>
   </si>
   <si>
     <t>29.27226 sec</t>
@@ -364,6 +358,84 @@
   <si>
     <t>9.88465e-11</t>
   </si>
+  <si>
+    <t>`out of mem`</t>
+  </si>
+  <si>
+    <t>Tempo totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ Lin </t>
+  </si>
+  <si>
+    <t>79.2 sec</t>
+  </si>
+  <si>
+    <t>200.604 sec</t>
+  </si>
+  <si>
+    <t>82.6357 s</t>
+  </si>
+  <si>
+    <t>0.2315 s</t>
+  </si>
+  <si>
+    <t>out of mem'</t>
+  </si>
+  <si>
+    <t>202.4469 s</t>
+  </si>
+  <si>
+    <t>974.5525 s</t>
+  </si>
+  <si>
+    <t>5.4666 s</t>
+  </si>
+  <si>
+    <t>0.5718 s</t>
+  </si>
+  <si>
+    <t>85.8982 s</t>
+  </si>
+  <si>
+    <t>std::badalloc'</t>
+  </si>
+  <si>
+    <t>218.9470 s</t>
+  </si>
+  <si>
+    <t>231.3900 s</t>
+  </si>
+  <si>
+    <t>21.5715 s</t>
+  </si>
+  <si>
+    <t>9.5677 s</t>
+  </si>
+  <si>
+    <t>1064.9390 s</t>
+  </si>
+  <si>
+    <t>0.6481 s</t>
+  </si>
+  <si>
+    <t>75.7502 s</t>
+  </si>
+  <si>
+    <t>1611.8161 s</t>
+  </si>
+  <si>
+    <t>7.6486 s</t>
+  </si>
+  <si>
+    <t>34.4108s</t>
+  </si>
+  <si>
+    <t>5.2170 s</t>
+  </si>
+  <si>
+    <t>0.1943 s</t>
+  </si>
 </sst>
 </file>
 
@@ -418,12 +490,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -741,7 +814,7 @@
   <dimension ref="A1:BU296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -903,29 +976,29 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -935,45 +1008,45 @@
         <v>11</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -1022,83 +1095,83 @@
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1147,83 +1220,83 @@
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1272,83 +1345,83 @@
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1397,62 +1470,66 @@
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1" t="s">
-        <v>77</v>
+      <c r="K6" s="3" t="s">
+        <v>108</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="3"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="1"/>
@@ -1502,52 +1579,58 @@
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="1"/>
@@ -1746,11 +1829,21 @@
       <c r="BU9" s="1"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1821,11 +1914,21 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1896,11 +1999,21 @@
       <c r="BU11" s="1"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1971,11 +2084,21 @@
       <c r="BU12" s="1"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2046,11 +2169,21 @@
       <c r="BU13" s="1"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2121,11 +2254,21 @@
       <c r="BU14" s="1"/>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2196,11 +2339,21 @@
       <c r="BU15" s="1"/>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
